--- a/BackTest/2020-01-21 BackTest ADA.xlsx
+++ b/BackTest/2020-01-21 BackTest ADA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>336886.9486</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>337055.5946</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>47.67</v>
+      </c>
+      <c r="J3" t="n">
+        <v>47.67</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>336876.9648</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="J4" t="n">
+        <v>47.67</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>336876.9648</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>47.67</v>
+      </c>
+      <c r="J5" t="n">
+        <v>47.67</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +603,19 @@
         <v>336876.9648</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>47.67</v>
+      </c>
+      <c r="J6" t="n">
+        <v>47.67</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +644,19 @@
         <v>371514.5915</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>47.67</v>
+      </c>
+      <c r="J7" t="n">
+        <v>47.67</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +685,19 @@
         <v>371514.5915</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="J8" t="n">
+        <v>47.67</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +726,19 @@
         <v>339514.5915</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="J9" t="n">
+        <v>47.67</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +767,19 @@
         <v>339514.5915</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>47.56</v>
+      </c>
+      <c r="J10" t="n">
+        <v>47.67</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +808,19 @@
         <v>272714.5915</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>47.56</v>
+      </c>
+      <c r="J11" t="n">
+        <v>47.67</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +849,19 @@
         <v>268875.3314</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>47.54</v>
+      </c>
+      <c r="J12" t="n">
+        <v>47.67</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +890,19 @@
         <v>268875.3314</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>47.52</v>
+      </c>
+      <c r="J13" t="n">
+        <v>47.67</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +931,19 @@
         <v>268875.3314</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>47.52</v>
+      </c>
+      <c r="J14" t="n">
+        <v>47.67</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -883,8 +975,14 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>47.67</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -913,11 +1011,19 @@
         <v>251608.73</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>47.44</v>
+      </c>
+      <c r="J16" t="n">
+        <v>47.67</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +1052,19 @@
         <v>251608.73</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>47.44</v>
+      </c>
+      <c r="J17" t="n">
+        <v>47.67</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +1093,19 @@
         <v>251838.8956</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>47.44</v>
+      </c>
+      <c r="J18" t="n">
+        <v>47.67</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1012,11 +1134,19 @@
         <v>251838.8956</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>47.49</v>
+      </c>
+      <c r="J19" t="n">
+        <v>47.67</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1045,11 +1175,19 @@
         <v>245847.6398</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>47.49</v>
+      </c>
+      <c r="J20" t="n">
+        <v>47.67</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1078,15 +1216,19 @@
         <v>245847.6398</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>47.38</v>
       </c>
       <c r="J21" t="n">
-        <v>47.38</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
+        <v>47.67</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1115,17 +1257,17 @@
         <v>245847.6398</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>47.38</v>
       </c>
       <c r="J22" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L22" t="n">
@@ -1156,17 +1298,17 @@
         <v>240475.2116</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>47.38</v>
       </c>
       <c r="J23" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L23" t="n">
@@ -1197,17 +1339,17 @@
         <v>240475.2116</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>47.3</v>
       </c>
       <c r="J24" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L24" t="n">
@@ -1238,13 +1380,13 @@
         <v>240492.0443</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>47.3</v>
       </c>
       <c r="J25" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -1279,13 +1421,13 @@
         <v>235197.99092024</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>47.44</v>
       </c>
       <c r="J26" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -1320,13 +1462,13 @@
         <v>235513.62602024</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>47.3</v>
       </c>
       <c r="J27" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -1361,13 +1503,13 @@
         <v>236556.91082024</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>47.47</v>
       </c>
       <c r="J28" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -1402,13 +1544,13 @@
         <v>240188.00342024</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>48.02</v>
       </c>
       <c r="J29" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -1447,7 +1589,7 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -1486,7 +1628,7 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -1525,7 +1667,7 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -1564,7 +1706,7 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -1603,7 +1745,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -1642,7 +1784,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -1681,7 +1823,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -1720,7 +1862,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -1759,7 +1901,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -1798,7 +1940,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -1837,7 +1979,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -1876,7 +2018,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -1915,7 +2057,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -1954,7 +2096,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -1993,7 +2135,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -2032,7 +2174,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -2071,7 +2213,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -2110,7 +2252,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2149,7 +2291,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2188,7 +2330,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2227,7 +2369,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2266,7 +2408,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2305,7 +2447,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -2344,7 +2486,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -2383,7 +2525,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -2422,7 +2564,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -2461,7 +2603,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -2500,7 +2642,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2539,7 +2681,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2578,7 +2720,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2617,7 +2759,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2656,7 +2798,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2695,7 +2837,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2734,7 +2876,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2773,7 +2915,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2812,7 +2954,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2851,7 +2993,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -2890,7 +3032,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -2925,11 +3067,13 @@
         <v>350947.1384933001</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>48.17</v>
+      </c>
       <c r="J68" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -2964,11 +3108,13 @@
         <v>344683.1384933001</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>48.33</v>
+      </c>
       <c r="J69" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -3003,11 +3149,13 @@
         <v>344683.1384933001</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>48.3</v>
+      </c>
       <c r="J70" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -3042,11 +3190,13 @@
         <v>450060.7194933001</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>48.3</v>
+      </c>
       <c r="J71" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -3085,7 +3235,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -3124,7 +3274,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3163,7 +3313,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3202,7 +3352,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3241,7 +3391,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3280,7 +3430,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3319,7 +3469,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3358,7 +3508,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3397,7 +3547,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3436,7 +3586,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3475,7 +3625,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3514,7 +3664,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3553,7 +3703,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3592,7 +3742,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3631,7 +3781,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3670,7 +3820,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3709,7 +3859,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3748,7 +3898,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3787,7 +3937,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3826,7 +3976,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3865,7 +4015,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -3904,7 +4054,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -3943,7 +4093,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -3982,7 +4132,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -4021,7 +4171,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -4060,7 +4210,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -4099,7 +4249,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -4138,7 +4288,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -4177,7 +4327,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -4216,7 +4366,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4255,7 +4405,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4294,7 +4444,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4333,7 +4483,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4372,7 +4522,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4411,7 +4561,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4450,7 +4600,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4489,7 +4639,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4528,7 +4678,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4567,7 +4717,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4606,7 +4756,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4645,7 +4795,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4684,7 +4834,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4723,7 +4873,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4762,7 +4912,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4801,7 +4951,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4840,7 +4990,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4879,7 +5029,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4918,7 +5068,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4957,7 +5107,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -4996,7 +5146,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -5035,7 +5185,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -5074,7 +5224,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -5113,7 +5263,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -5152,7 +5302,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -5191,7 +5341,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -5230,7 +5380,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -5269,7 +5419,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -5308,7 +5458,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -5347,7 +5497,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -5386,7 +5536,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5425,7 +5575,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5464,7 +5614,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5503,7 +5653,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5542,7 +5692,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5581,7 +5731,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5620,7 +5770,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5659,7 +5809,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5698,7 +5848,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5737,7 +5887,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5776,7 +5926,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5815,7 +5965,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5854,7 +6004,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5893,7 +6043,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -5932,7 +6082,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -5971,7 +6121,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -6010,7 +6160,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -6049,7 +6199,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -6088,7 +6238,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -6127,7 +6277,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -6166,7 +6316,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -6205,7 +6355,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -6244,7 +6394,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -6283,7 +6433,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -6322,7 +6472,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -6361,7 +6511,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -6400,7 +6550,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -6439,7 +6589,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -6478,7 +6628,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -6517,7 +6667,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -6556,7 +6706,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6595,7 +6745,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6634,7 +6784,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6673,7 +6823,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6712,7 +6862,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6751,7 +6901,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6790,7 +6940,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6829,7 +6979,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6868,7 +7018,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6907,7 +7057,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6946,7 +7096,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -6985,7 +7135,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -7024,7 +7174,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -7063,7 +7213,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -7102,7 +7252,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -7141,7 +7291,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -7180,7 +7330,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -7219,7 +7369,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -7258,7 +7408,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -7297,7 +7447,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -7336,7 +7486,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -7375,7 +7525,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -7414,7 +7564,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -7453,7 +7603,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -7492,7 +7642,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -7531,7 +7681,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -7570,7 +7720,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -7609,7 +7759,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -7648,7 +7798,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -7687,7 +7837,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -7726,7 +7876,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -7765,7 +7915,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -7804,7 +7954,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -7843,7 +7993,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -7882,7 +8032,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -7921,7 +8071,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -7960,7 +8110,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -7999,7 +8149,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -8038,7 +8188,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -8077,7 +8227,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -8116,7 +8266,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -8155,7 +8305,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -8194,7 +8344,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -8233,7 +8383,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -8272,7 +8422,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -8311,7 +8461,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -8350,7 +8500,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -8389,7 +8539,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -8428,7 +8578,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -8467,7 +8617,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -8506,7 +8656,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -8545,7 +8695,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -8584,7 +8734,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -8623,7 +8773,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -8662,7 +8812,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -8701,7 +8851,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
@@ -8740,7 +8890,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
@@ -8779,7 +8929,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
@@ -8818,7 +8968,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
@@ -8857,7 +9007,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
@@ -8896,7 +9046,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -8935,7 +9085,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -8974,7 +9124,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
@@ -9013,7 +9163,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
@@ -9052,7 +9202,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
@@ -9091,7 +9241,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
@@ -9130,7 +9280,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
@@ -9169,7 +9319,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
@@ -9208,7 +9358,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -9247,7 +9397,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -9286,7 +9436,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -9325,7 +9475,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
@@ -9364,7 +9514,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
@@ -9403,7 +9553,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
@@ -9442,7 +9592,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
@@ -9481,7 +9631,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
@@ -9520,7 +9670,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
@@ -9559,7 +9709,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
@@ -9598,7 +9748,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
@@ -9637,7 +9787,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
@@ -9676,7 +9826,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
@@ -9715,7 +9865,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
@@ -9754,7 +9904,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K243" t="inlineStr">
         <is>
@@ -9793,7 +9943,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
@@ -9832,7 +9982,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K245" t="inlineStr">
         <is>
@@ -9871,7 +10021,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
@@ -9910,7 +10060,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
@@ -9949,7 +10099,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
@@ -9988,7 +10138,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
@@ -10027,7 +10177,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
@@ -10066,7 +10216,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K251" t="inlineStr">
         <is>
@@ -10105,7 +10255,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K252" t="inlineStr">
         <is>
@@ -10144,7 +10294,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K253" t="inlineStr">
         <is>
@@ -10183,7 +10333,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
@@ -10222,7 +10372,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
@@ -10261,7 +10411,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
@@ -10300,7 +10450,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
@@ -10339,7 +10489,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
@@ -10378,7 +10528,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K259" t="inlineStr">
         <is>
@@ -10417,7 +10567,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K260" t="inlineStr">
         <is>
@@ -10456,7 +10606,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K261" t="inlineStr">
         <is>
@@ -10495,7 +10645,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K262" t="inlineStr">
         <is>
@@ -10534,7 +10684,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K263" t="inlineStr">
         <is>
@@ -10573,7 +10723,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K264" t="inlineStr">
         <is>
@@ -10612,7 +10762,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K265" t="inlineStr">
         <is>
@@ -10651,7 +10801,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K266" t="inlineStr">
         <is>
@@ -10690,7 +10840,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K267" t="inlineStr">
         <is>
@@ -10729,7 +10879,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K268" t="inlineStr">
         <is>
@@ -10768,7 +10918,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K269" t="inlineStr">
         <is>
@@ -10807,7 +10957,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K270" t="inlineStr">
         <is>
@@ -10846,7 +10996,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K271" t="inlineStr">
         <is>
@@ -10885,7 +11035,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
@@ -10924,7 +11074,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
@@ -10963,7 +11113,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
@@ -11002,7 +11152,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
@@ -11041,7 +11191,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
@@ -11080,7 +11230,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
@@ -11119,7 +11269,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
@@ -11158,7 +11308,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K279" t="inlineStr">
         <is>
@@ -11197,7 +11347,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
@@ -11236,7 +11386,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
@@ -11275,7 +11425,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
@@ -11314,7 +11464,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
@@ -11353,7 +11503,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
@@ -11392,7 +11542,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
@@ -11431,7 +11581,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
@@ -11470,7 +11620,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
@@ -11509,7 +11659,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K288" t="inlineStr">
         <is>
@@ -11548,7 +11698,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
@@ -11587,7 +11737,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>
@@ -11626,7 +11776,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
@@ -11665,7 +11815,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
@@ -11704,7 +11854,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K293" t="inlineStr">
         <is>
@@ -11743,7 +11893,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K294" t="inlineStr">
         <is>
@@ -11782,7 +11932,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
@@ -11821,7 +11971,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
@@ -11856,19 +12006,19 @@
         <v>731235.25170865</v>
       </c>
       <c r="H297" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="n">
-        <v>47.38</v>
+        <v>47.67</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L297" t="n">
-        <v>1.037845082313212</v>
+        <v>1</v>
       </c>
       <c r="M297" t="inlineStr"/>
     </row>
@@ -11895,11 +12045,17 @@
         <v>685939.90960865</v>
       </c>
       <c r="H298" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>47.67</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11928,11 +12084,17 @@
         <v>697241.35600865</v>
       </c>
       <c r="H299" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>47.67</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11961,11 +12123,17 @@
         <v>697143.4319086501</v>
       </c>
       <c r="H300" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>47.67</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11994,11 +12162,17 @@
         <v>678801.1148086501</v>
       </c>
       <c r="H301" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>47.67</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -12027,11 +12201,17 @@
         <v>882487.36710865</v>
       </c>
       <c r="H302" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>47.67</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -12060,11 +12240,17 @@
         <v>917188.46750865</v>
       </c>
       <c r="H303" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>47.67</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -12093,11 +12279,17 @@
         <v>859077.18600865</v>
       </c>
       <c r="H304" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>47.67</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -12129,8 +12321,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>47.67</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -12162,8 +12360,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>47.67</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -12192,11 +12396,17 @@
         <v>1124261.86830865</v>
       </c>
       <c r="H307" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>47.67</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -12225,11 +12435,17 @@
         <v>1124261.86830865</v>
       </c>
       <c r="H308" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>47.67</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -12258,11 +12474,17 @@
         <v>1121945.87960865</v>
       </c>
       <c r="H309" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>47.67</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -12291,11 +12513,17 @@
         <v>1086932.81000865</v>
       </c>
       <c r="H310" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>47.67</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -12327,8 +12555,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>47.67</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -12360,8 +12594,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>47.67</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12393,8 +12633,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>47.67</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12426,8 +12672,14 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>47.67</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12459,8 +12711,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>47.67</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12489,11 +12747,17 @@
         <v>1070956.54560865</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>47.67</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12525,8 +12789,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>47.67</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12558,8 +12828,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>47.67</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12591,8 +12867,14 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>47.67</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12624,8 +12906,14 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>47.67</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12657,8 +12945,14 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>47.67</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12690,8 +12984,14 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>47.67</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12723,8 +13023,14 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>47.67</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12756,8 +13062,14 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>47.67</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12789,8 +13101,14 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>47.67</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12822,8 +13140,14 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>47.67</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12855,8 +13179,14 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>47.67</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12888,8 +13218,14 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>47.67</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12921,8 +13257,14 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>47.67</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12954,8 +13296,14 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>47.67</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12987,8 +13335,14 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>47.67</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -13020,8 +13374,14 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>47.67</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -13050,13 +13410,19 @@
         <v>1137729.66020865</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>47.67</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L333" t="n">
-        <v>1</v>
+        <v>1.030242290748899</v>
       </c>
       <c r="M333" t="inlineStr"/>
     </row>
@@ -13215,7 +13581,7 @@
         <v>1021078.41920865</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -13314,7 +13680,7 @@
         <v>901404.3604086499</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -13347,7 +13713,7 @@
         <v>901386.1623086499</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -13413,7 +13779,7 @@
         <v>1099936.66990865</v>
       </c>
       <c r="H344" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -13446,7 +13812,7 @@
         <v>1099936.66990865</v>
       </c>
       <c r="H345" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -13479,7 +13845,7 @@
         <v>1097791.66990865</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -13512,7 +13878,7 @@
         <v>1097791.66990865</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -13545,7 +13911,7 @@
         <v>1097791.66990865</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -13578,7 +13944,7 @@
         <v>982838.6387086498</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -13776,7 +14142,7 @@
         <v>1431772.92390865</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -13809,7 +14175,7 @@
         <v>1431783.92390865</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -13842,7 +14208,7 @@
         <v>1429242.92390865</v>
       </c>
       <c r="H357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -13875,7 +14241,7 @@
         <v>1432421.81090865</v>
       </c>
       <c r="H358" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -13908,7 +14274,7 @@
         <v>1432410.81090865</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -13941,7 +14307,7 @@
         <v>1434696.90020865</v>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -13974,7 +14340,7 @@
         <v>1431346.28810865</v>
       </c>
       <c r="H361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -14469,7 +14835,7 @@
         <v>1416441.80670828</v>
       </c>
       <c r="H376" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -14601,7 +14967,7 @@
         <v>1423441.02295631</v>
       </c>
       <c r="H380" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -14667,7 +15033,7 @@
         <v>1425557.55565631</v>
       </c>
       <c r="H382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -14766,7 +15132,7 @@
         <v>1437482.03295631</v>
       </c>
       <c r="H385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -14799,7 +15165,7 @@
         <v>1437482.03295631</v>
       </c>
       <c r="H386" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -14832,7 +15198,7 @@
         <v>1439442.79927877</v>
       </c>
       <c r="H387" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -14865,7 +15231,7 @@
         <v>1439937.63807877</v>
       </c>
       <c r="H388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -14898,7 +15264,7 @@
         <v>1498464.16437877</v>
       </c>
       <c r="H389" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -15030,7 +15396,7 @@
         <v>1730599.59240547</v>
       </c>
       <c r="H393" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -15063,7 +15429,7 @@
         <v>1732877.31250547</v>
       </c>
       <c r="H394" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -15096,7 +15462,7 @@
         <v>1757138.21250547</v>
       </c>
       <c r="H395" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -15162,7 +15528,7 @@
         <v>1689196.87870547</v>
       </c>
       <c r="H397" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -15294,7 +15660,7 @@
         <v>1674052.25700547</v>
       </c>
       <c r="H401" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -15327,7 +15693,7 @@
         <v>1607336.49730547</v>
       </c>
       <c r="H402" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -15360,7 +15726,7 @@
         <v>1564386.49730547</v>
       </c>
       <c r="H403" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -15393,7 +15759,7 @@
         <v>1564614.57820547</v>
       </c>
       <c r="H404" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -15426,7 +15792,7 @@
         <v>1560595.61700547</v>
       </c>
       <c r="H405" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -15459,7 +15825,7 @@
         <v>1559469.447605469</v>
       </c>
       <c r="H406" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -15492,7 +15858,7 @@
         <v>1559886.137760489</v>
       </c>
       <c r="H407" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -15525,7 +15891,7 @@
         <v>1543939.59646049</v>
       </c>
       <c r="H408" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -15558,7 +15924,7 @@
         <v>1509820.68676049</v>
       </c>
       <c r="H409" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -15591,7 +15957,7 @@
         <v>1509820.68676049</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -15624,7 +15990,7 @@
         <v>1440873.70986049</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -15657,7 +16023,7 @@
         <v>1445561.19826049</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -15690,7 +16056,7 @@
         <v>1445561.19826049</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -15723,7 +16089,7 @@
         <v>1481643.68296049</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -15756,7 +16122,7 @@
         <v>1443870.09066049</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -15789,7 +16155,7 @@
         <v>1451850.02516049</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -15822,7 +16188,7 @@
         <v>1451850.02516049</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -15855,7 +16221,7 @@
         <v>1456246.09486049</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -15888,7 +16254,7 @@
         <v>1456246.09486049</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -15954,7 +16320,7 @@
         <v>1476789.23946049</v>
       </c>
       <c r="H421" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -15987,7 +16353,7 @@
         <v>1492536.07696049</v>
       </c>
       <c r="H422" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -16020,7 +16386,7 @@
         <v>1492536.07696049</v>
       </c>
       <c r="H423" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -16053,7 +16419,7 @@
         <v>1512546.03206049</v>
       </c>
       <c r="H424" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -16086,7 +16452,7 @@
         <v>1512423.302660489</v>
       </c>
       <c r="H425" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -16119,7 +16485,7 @@
         <v>1821934.00250203</v>
       </c>
       <c r="H426" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -16152,7 +16518,7 @@
         <v>1787144.00250203</v>
       </c>
       <c r="H427" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -16185,7 +16551,7 @@
         <v>1789856.29240203</v>
       </c>
       <c r="H428" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -16218,7 +16584,7 @@
         <v>1789856.29240203</v>
       </c>
       <c r="H429" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -16251,7 +16617,7 @@
         <v>1789856.29240203</v>
       </c>
       <c r="H430" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -16416,7 +16782,7 @@
         <v>1808491.256102029</v>
       </c>
       <c r="H435" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -16449,7 +16815,7 @@
         <v>1808491.256102029</v>
       </c>
       <c r="H436" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -16482,7 +16848,7 @@
         <v>1804056.256102029</v>
       </c>
       <c r="H437" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -16515,7 +16881,7 @@
         <v>1803097.858402029</v>
       </c>
       <c r="H438" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -16548,7 +16914,7 @@
         <v>1803097.858402029</v>
       </c>
       <c r="H439" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -16581,7 +16947,7 @@
         <v>1798870.048702029</v>
       </c>
       <c r="H440" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -16614,7 +16980,7 @@
         <v>1804200.529302029</v>
       </c>
       <c r="H441" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -16647,7 +17013,7 @@
         <v>1804485.529302029</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -16680,7 +17046,7 @@
         <v>1804485.529302029</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -16713,7 +17079,7 @@
         <v>1804485.529302029</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -16746,7 +17112,7 @@
         <v>1804500.529302029</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -16779,7 +17145,7 @@
         <v>1802463.529302029</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -16812,7 +17178,7 @@
         <v>1798275.551902029</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -16845,7 +17211,7 @@
         <v>1488764.852002029</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -16878,7 +17244,7 @@
         <v>1517283.130502029</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -16911,7 +17277,7 @@
         <v>1517283.130502029</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -16944,7 +17310,7 @@
         <v>1517283.130502029</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -17274,7 +17640,7 @@
         <v>1499288.450302029</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -17373,7 +17739,7 @@
         <v>1501127.847102029</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -17406,7 +17772,7 @@
         <v>1501127.847102029</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -17439,7 +17805,7 @@
         <v>1340053.843702029</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -17472,7 +17838,7 @@
         <v>1438320.451002029</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -17505,7 +17871,7 @@
         <v>1435259.001702029</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -17538,7 +17904,7 @@
         <v>1449866.901702029</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -17571,7 +17937,7 @@
         <v>1275083.008502029</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -17604,7 +17970,7 @@
         <v>1275083.008502029</v>
       </c>
       <c r="H471" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -17637,7 +18003,7 @@
         <v>1271745.925702029</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -17670,7 +18036,7 @@
         <v>1240562.010902029</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -17703,7 +18069,7 @@
         <v>1240719.701702029</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -17736,7 +18102,7 @@
         <v>1216023.955502029</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -17769,7 +18135,7 @@
         <v>1197593.691302029</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -17835,7 +18201,7 @@
         <v>1335305.401802029</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -17901,7 +18267,7 @@
         <v>1310125.720602029</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -17934,7 +18300,7 @@
         <v>1497453.959802029</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -17967,7 +18333,7 @@
         <v>1505141.258602029</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -18000,7 +18366,7 @@
         <v>1672928.159202029</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -18066,7 +18432,7 @@
         <v>1570587.573167069</v>
       </c>
       <c r="H485" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -18429,7 +18795,7 @@
         <v>1513712.146467069</v>
       </c>
       <c r="H496" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -18462,7 +18828,7 @@
         <v>1524231.486467069</v>
       </c>
       <c r="H497" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -19320,7 +19686,7 @@
         <v>1974123.378300519</v>
       </c>
       <c r="H523" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -19650,7 +20016,7 @@
         <v>1930013.747272509</v>
       </c>
       <c r="H533" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -19683,7 +20049,7 @@
         <v>1931311.180272509</v>
       </c>
       <c r="H534" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -19716,7 +20082,7 @@
         <v>1929211.563072509</v>
       </c>
       <c r="H535" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -19749,7 +20115,7 @@
         <v>1797655.686772509</v>
       </c>
       <c r="H536" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -19782,7 +20148,7 @@
         <v>1797696.276772509</v>
       </c>
       <c r="H537" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -19815,7 +20181,7 @@
         <v>1807528.286772509</v>
       </c>
       <c r="H538" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -19848,7 +20214,7 @@
         <v>1808384.382472509</v>
       </c>
       <c r="H539" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -19881,7 +20247,7 @@
         <v>1728371.943572509</v>
       </c>
       <c r="H540" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -19914,7 +20280,7 @@
         <v>1752651.757372509</v>
       </c>
       <c r="H541" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -19980,7 +20346,7 @@
         <v>1743225.254172509</v>
       </c>
       <c r="H543" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -20013,7 +20379,7 @@
         <v>1743238.633472509</v>
       </c>
       <c r="H544" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -20046,7 +20412,7 @@
         <v>1718958.041072509</v>
       </c>
       <c r="H545" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -20057,6 +20423,6 @@
       <c r="M545" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest ADA.xlsx
+++ b/BackTest/2020-01-21 BackTest ADA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>336886.9486</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>337055.5946</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>47.67</v>
-      </c>
-      <c r="J3" t="n">
-        <v>47.67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>336876.9648</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>47.8</v>
-      </c>
-      <c r="J4" t="n">
-        <v>47.67</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>336876.9648</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>47.67</v>
-      </c>
-      <c r="J5" t="n">
-        <v>47.67</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -603,19 +583,11 @@
         <v>336876.9648</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>47.67</v>
-      </c>
-      <c r="J6" t="n">
-        <v>47.67</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -644,19 +616,11 @@
         <v>371514.5915</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>47.67</v>
-      </c>
-      <c r="J7" t="n">
-        <v>47.67</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -685,19 +649,11 @@
         <v>371514.5915</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>47.7</v>
-      </c>
-      <c r="J8" t="n">
-        <v>47.67</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -726,19 +682,11 @@
         <v>339514.5915</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>47.7</v>
-      </c>
-      <c r="J9" t="n">
-        <v>47.67</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -767,19 +715,11 @@
         <v>339514.5915</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>47.56</v>
-      </c>
-      <c r="J10" t="n">
-        <v>47.67</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -808,19 +748,11 @@
         <v>272714.5915</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>47.56</v>
-      </c>
-      <c r="J11" t="n">
-        <v>47.67</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -849,19 +781,11 @@
         <v>268875.3314</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>47.54</v>
-      </c>
-      <c r="J12" t="n">
-        <v>47.67</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -890,19 +814,11 @@
         <v>268875.3314</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>47.52</v>
-      </c>
-      <c r="J13" t="n">
-        <v>47.67</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -931,19 +847,11 @@
         <v>268875.3314</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>47.52</v>
-      </c>
-      <c r="J14" t="n">
-        <v>47.67</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -975,14 +883,8 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>47.67</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -1011,19 +913,11 @@
         <v>251608.73</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>47.44</v>
-      </c>
-      <c r="J16" t="n">
-        <v>47.67</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1058,13 +952,9 @@
         <v>47.44</v>
       </c>
       <c r="J17" t="n">
-        <v>47.67</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>47.44</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1099,11 +989,11 @@
         <v>47.44</v>
       </c>
       <c r="J18" t="n">
-        <v>47.67</v>
+        <v>47.44</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L18" t="n">
@@ -1140,11 +1030,11 @@
         <v>47.49</v>
       </c>
       <c r="J19" t="n">
-        <v>47.67</v>
+        <v>47.44</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L19" t="n">
@@ -1181,13 +1071,9 @@
         <v>47.49</v>
       </c>
       <c r="J20" t="n">
-        <v>47.67</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>47.49</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1222,11 +1108,11 @@
         <v>47.38</v>
       </c>
       <c r="J21" t="n">
-        <v>47.67</v>
+        <v>47.49</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L21" t="n">
@@ -1263,11 +1149,11 @@
         <v>47.38</v>
       </c>
       <c r="J22" t="n">
-        <v>47.67</v>
+        <v>47.49</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L22" t="n">
@@ -1304,13 +1190,9 @@
         <v>47.38</v>
       </c>
       <c r="J23" t="n">
-        <v>47.67</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>47.38</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1345,11 +1227,11 @@
         <v>47.3</v>
       </c>
       <c r="J24" t="n">
-        <v>47.67</v>
+        <v>47.38</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L24" t="n">
@@ -1386,7 +1268,7 @@
         <v>47.3</v>
       </c>
       <c r="J25" t="n">
-        <v>47.67</v>
+        <v>47.38</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -1427,7 +1309,7 @@
         <v>47.44</v>
       </c>
       <c r="J26" t="n">
-        <v>47.67</v>
+        <v>47.38</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -1468,7 +1350,7 @@
         <v>47.3</v>
       </c>
       <c r="J27" t="n">
-        <v>47.67</v>
+        <v>47.38</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -1509,7 +1391,7 @@
         <v>47.47</v>
       </c>
       <c r="J28" t="n">
-        <v>47.67</v>
+        <v>47.38</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -1544,13 +1426,11 @@
         <v>240188.00342024</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>48.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
-        <v>47.67</v>
+        <v>47.38</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -1589,7 +1469,7 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
-        <v>47.67</v>
+        <v>47.38</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -1628,7 +1508,7 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
-        <v>47.67</v>
+        <v>47.38</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -1667,7 +1547,7 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
-        <v>47.67</v>
+        <v>47.38</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -1706,7 +1586,7 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
-        <v>47.67</v>
+        <v>47.38</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -1745,7 +1625,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
-        <v>47.67</v>
+        <v>47.38</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -1784,7 +1664,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
-        <v>47.67</v>
+        <v>47.38</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -1823,7 +1703,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
-        <v>47.67</v>
+        <v>47.38</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -1862,7 +1742,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>47.67</v>
+        <v>47.38</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -1901,7 +1781,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
-        <v>47.67</v>
+        <v>47.38</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -1940,7 +1820,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
-        <v>47.67</v>
+        <v>47.38</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -1979,7 +1859,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
-        <v>47.67</v>
+        <v>47.38</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -2018,7 +1898,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
-        <v>47.67</v>
+        <v>47.38</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -2057,7 +1937,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
-        <v>47.67</v>
+        <v>47.38</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -2096,7 +1976,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
-        <v>47.67</v>
+        <v>47.38</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -2135,7 +2015,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
-        <v>47.67</v>
+        <v>47.38</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -2174,7 +2054,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
-        <v>47.67</v>
+        <v>47.38</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -2213,7 +2093,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
-        <v>47.67</v>
+        <v>47.38</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -2252,7 +2132,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
-        <v>47.67</v>
+        <v>47.38</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2291,7 +2171,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
-        <v>47.67</v>
+        <v>47.38</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2330,7 +2210,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
-        <v>47.67</v>
+        <v>47.38</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2369,7 +2249,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
-        <v>47.67</v>
+        <v>47.38</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2408,7 +2288,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
-        <v>47.67</v>
+        <v>47.38</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2447,7 +2327,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
-        <v>47.67</v>
+        <v>47.38</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -2486,7 +2366,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
-        <v>47.67</v>
+        <v>47.38</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -2525,7 +2405,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
-        <v>47.67</v>
+        <v>47.38</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -2564,7 +2444,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
-        <v>47.67</v>
+        <v>47.38</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -2603,7 +2483,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
-        <v>47.67</v>
+        <v>47.38</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -2642,7 +2522,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
-        <v>47.67</v>
+        <v>47.38</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2677,19 +2557,19 @@
         <v>358944.5949933001</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
-        <v>47.67</v>
+        <v>47.38</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>1</v>
+        <v>1.018216547066273</v>
       </c>
       <c r="M58" t="inlineStr"/>
     </row>
@@ -2719,14 +2599,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>47.67</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2758,14 +2632,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>47.67</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2794,17 +2662,11 @@
         <v>359180.6004933001</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>47.67</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2833,17 +2695,11 @@
         <v>390553.4467933001</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>47.67</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2872,17 +2728,11 @@
         <v>390553.4467933001</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>47.67</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2911,17 +2761,11 @@
         <v>386318.6336933001</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>47.67</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2950,17 +2794,11 @@
         <v>338346.0747933001</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>47.67</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2989,17 +2827,11 @@
         <v>306807.3153933001</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>47.67</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -3028,17 +2860,11 @@
         <v>342577.1735933001</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>47.67</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3067,19 +2893,11 @@
         <v>350947.1384933001</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>48.17</v>
-      </c>
-      <c r="J68" t="n">
-        <v>47.67</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3108,19 +2926,11 @@
         <v>344683.1384933001</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>48.33</v>
-      </c>
-      <c r="J69" t="n">
-        <v>47.67</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3149,19 +2959,11 @@
         <v>344683.1384933001</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>48.3</v>
-      </c>
-      <c r="J70" t="n">
-        <v>47.67</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3190,19 +2992,11 @@
         <v>450060.7194933001</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>48.3</v>
-      </c>
-      <c r="J71" t="n">
-        <v>47.67</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3231,17 +3025,11 @@
         <v>453762.3181432401</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>47.67</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3270,17 +3058,11 @@
         <v>453638.8382747201</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>47.67</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3309,17 +3091,11 @@
         <v>412504.6060747202</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>47.67</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3348,17 +3124,11 @@
         <v>410649.5037747201</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>47.67</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3387,17 +3157,11 @@
         <v>410649.5037747201</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>47.67</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3426,17 +3190,11 @@
         <v>317688.4610747201</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>47.67</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3468,14 +3226,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>47.67</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3507,14 +3259,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>47.67</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3546,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>47.67</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3585,14 +3325,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>47.67</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3624,14 +3358,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>47.67</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3663,14 +3391,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>47.67</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3702,14 +3424,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>47.67</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3741,14 +3457,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>47.67</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3780,14 +3490,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>47.67</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3819,14 +3523,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>47.67</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3858,14 +3556,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>47.67</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3897,14 +3589,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>47.67</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3936,14 +3622,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>47.67</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3975,14 +3655,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>47.67</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -4014,14 +3688,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>47.67</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4053,14 +3721,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>47.67</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4092,14 +3754,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>47.67</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4131,14 +3787,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>47.67</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4170,14 +3820,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>47.67</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4209,14 +3853,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>47.67</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4248,14 +3886,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>47.67</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4287,14 +3919,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>47.67</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4326,14 +3952,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>47.67</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4365,14 +3985,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>47.67</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4404,14 +4018,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>47.67</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4443,14 +4051,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>47.67</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4482,14 +4084,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>47.67</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4521,14 +4117,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>47.67</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4560,14 +4150,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>47.67</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4599,14 +4183,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>47.67</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4638,14 +4216,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>47.67</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4677,14 +4249,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>47.67</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4716,14 +4282,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>47.67</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4755,14 +4315,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>47.67</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4794,14 +4348,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>47.67</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4833,14 +4381,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>47.67</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4872,14 +4414,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>47.67</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4911,14 +4447,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>47.67</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4950,14 +4480,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>47.67</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4989,14 +4513,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>47.67</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -5028,14 +4546,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>47.67</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5067,14 +4579,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>47.67</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5106,14 +4612,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>47.67</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5145,14 +4645,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>47.67</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5184,14 +4678,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>47.67</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5223,14 +4711,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>47.67</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5259,17 +4741,15 @@
         <v>-367710.5583520599</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>47.85</v>
+      </c>
       <c r="J124" t="n">
-        <v>47.67</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>47.85</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5298,15 +4778,17 @@
         <v>-367710.5583520599</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>47.85</v>
+      </c>
       <c r="J125" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L125" t="n">
@@ -5341,11 +4823,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L126" t="n">
@@ -5376,15 +4858,17 @@
         <v>-363331.3144520599</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>47.81</v>
+      </c>
       <c r="J127" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L127" t="n">
@@ -5419,7 +4903,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -5454,11 +4938,13 @@
         <v>-596389.5272520599</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>47.81</v>
+      </c>
       <c r="J129" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -5493,11 +4979,13 @@
         <v>-596389.5272520599</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>47.8</v>
+      </c>
       <c r="J130" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -5532,11 +5020,13 @@
         <v>-596389.5272520599</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>47.8</v>
+      </c>
       <c r="J131" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5571,11 +5061,13 @@
         <v>-585384.0062520599</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>47.8</v>
+      </c>
       <c r="J132" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5610,11 +5102,13 @@
         <v>-585384.00615206</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>47.81</v>
+      </c>
       <c r="J133" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5649,11 +5143,13 @@
         <v>-585221.35845206</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>47.82</v>
+      </c>
       <c r="J134" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5688,11 +5184,13 @@
         <v>-584333.30245206</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>47.9</v>
+      </c>
       <c r="J135" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5727,11 +5225,13 @@
         <v>-434346.7849520601</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>48</v>
+      </c>
       <c r="J136" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5770,7 +5270,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5805,11 +5305,13 @@
         <v>-394885.2074520601</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>47.81</v>
+      </c>
       <c r="J138" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5848,7 +5350,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5887,7 +5389,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5926,7 +5428,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5965,7 +5467,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -6004,7 +5506,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -6043,7 +5545,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -6082,7 +5584,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -6121,7 +5623,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -6160,7 +5662,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -6199,7 +5701,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -6238,7 +5740,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -6277,7 +5779,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -6316,7 +5818,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -6355,7 +5857,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -6394,7 +5896,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -6433,7 +5935,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -6472,7 +5974,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -6511,7 +6013,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -6550,7 +6052,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -6589,7 +6091,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -6628,7 +6130,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -6667,7 +6169,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -6706,7 +6208,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6745,7 +6247,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6784,7 +6286,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6823,7 +6325,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6862,7 +6364,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6901,7 +6403,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6940,7 +6442,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6979,7 +6481,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -7018,7 +6520,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -7057,7 +6559,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -7096,7 +6598,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -7135,7 +6637,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -7174,7 +6676,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -7213,7 +6715,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -7252,7 +6754,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -7291,7 +6793,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -7330,7 +6832,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -7369,7 +6871,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -7408,7 +6910,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -7447,7 +6949,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -7486,7 +6988,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -7525,7 +7027,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -7564,7 +7066,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -7603,7 +7105,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -7642,7 +7144,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -7681,7 +7183,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -7720,7 +7222,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -7759,7 +7261,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -7798,7 +7300,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -7837,7 +7339,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -7876,7 +7378,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -7915,7 +7417,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -7954,7 +7456,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -7993,7 +7495,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -8032,7 +7534,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -8071,7 +7573,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -8110,7 +7612,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -8149,7 +7651,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -8188,7 +7690,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -8227,7 +7729,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -8266,7 +7768,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -8305,7 +7807,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -8344,7 +7846,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -8383,7 +7885,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -8422,7 +7924,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -8461,7 +7963,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -8500,7 +8002,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -8539,7 +8041,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -8578,7 +8080,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -8617,7 +8119,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -8656,7 +8158,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -8695,7 +8197,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -8734,7 +8236,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -8773,7 +8275,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -8812,7 +8314,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -8851,7 +8353,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
@@ -8890,7 +8392,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
@@ -8929,7 +8431,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
@@ -8968,7 +8470,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
@@ -9007,7 +8509,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
@@ -9046,7 +8548,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -9085,7 +8587,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -9124,7 +8626,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
@@ -9163,7 +8665,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
@@ -9202,7 +8704,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
@@ -9241,7 +8743,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
@@ -9280,7 +8782,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
@@ -9319,7 +8821,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
@@ -9358,7 +8860,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -9397,7 +8899,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -9436,7 +8938,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -9475,7 +8977,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
@@ -9514,7 +9016,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
@@ -9553,7 +9055,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
@@ -9592,7 +9094,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
@@ -9631,7 +9133,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
@@ -9670,7 +9172,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
@@ -9709,7 +9211,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
@@ -9748,7 +9250,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
@@ -9787,7 +9289,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
@@ -9826,7 +9328,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
@@ -9865,7 +9367,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
@@ -9904,7 +9406,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K243" t="inlineStr">
         <is>
@@ -9943,7 +9445,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
@@ -9982,7 +9484,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K245" t="inlineStr">
         <is>
@@ -10021,7 +9523,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
@@ -10060,7 +9562,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
@@ -10099,7 +9601,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
@@ -10138,7 +9640,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
@@ -10177,7 +9679,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
@@ -10216,7 +9718,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K251" t="inlineStr">
         <is>
@@ -10255,7 +9757,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K252" t="inlineStr">
         <is>
@@ -10294,7 +9796,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K253" t="inlineStr">
         <is>
@@ -10333,7 +9835,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
@@ -10372,7 +9874,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
@@ -10411,7 +9913,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
@@ -10450,7 +9952,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
@@ -10489,7 +9991,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
@@ -10528,7 +10030,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K259" t="inlineStr">
         <is>
@@ -10567,7 +10069,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K260" t="inlineStr">
         <is>
@@ -10606,7 +10108,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K261" t="inlineStr">
         <is>
@@ -10645,7 +10147,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K262" t="inlineStr">
         <is>
@@ -10684,7 +10186,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K263" t="inlineStr">
         <is>
@@ -10723,7 +10225,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K264" t="inlineStr">
         <is>
@@ -10762,7 +10264,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K265" t="inlineStr">
         <is>
@@ -10801,7 +10303,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K266" t="inlineStr">
         <is>
@@ -10840,7 +10342,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K267" t="inlineStr">
         <is>
@@ -10879,7 +10381,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K268" t="inlineStr">
         <is>
@@ -10918,7 +10420,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K269" t="inlineStr">
         <is>
@@ -10957,7 +10459,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K270" t="inlineStr">
         <is>
@@ -10996,7 +10498,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K271" t="inlineStr">
         <is>
@@ -11035,7 +10537,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
@@ -11074,7 +10576,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
@@ -11113,7 +10615,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
@@ -11152,7 +10654,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
@@ -11191,7 +10693,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
@@ -11230,7 +10732,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
@@ -11269,7 +10771,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
@@ -11308,7 +10810,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K279" t="inlineStr">
         <is>
@@ -11347,7 +10849,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
@@ -11386,7 +10888,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
@@ -11425,7 +10927,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
@@ -11464,7 +10966,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
@@ -11503,7 +11005,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
@@ -11542,7 +11044,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
@@ -11581,7 +11083,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
@@ -11620,7 +11122,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
@@ -11659,7 +11161,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K288" t="inlineStr">
         <is>
@@ -11698,7 +11200,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
@@ -11737,7 +11239,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>
@@ -11776,7 +11278,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
@@ -11815,7 +11317,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
@@ -11854,7 +11356,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K293" t="inlineStr">
         <is>
@@ -11893,7 +11395,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K294" t="inlineStr">
         <is>
@@ -11932,7 +11434,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
@@ -11971,7 +11473,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
@@ -12010,7 +11512,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
@@ -12049,7 +11551,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
@@ -12088,7 +11590,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K299" t="inlineStr">
         <is>
@@ -12127,7 +11629,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K300" t="inlineStr">
         <is>
@@ -12166,7 +11668,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K301" t="inlineStr">
         <is>
@@ -12205,7 +11707,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K302" t="inlineStr">
         <is>
@@ -12244,7 +11746,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K303" t="inlineStr">
         <is>
@@ -12283,7 +11785,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K304" t="inlineStr">
         <is>
@@ -12322,7 +11824,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
@@ -12361,7 +11863,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K306" t="inlineStr">
         <is>
@@ -12400,7 +11902,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K307" t="inlineStr">
         <is>
@@ -12439,7 +11941,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K308" t="inlineStr">
         <is>
@@ -12478,7 +11980,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K309" t="inlineStr">
         <is>
@@ -12517,7 +12019,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K310" t="inlineStr">
         <is>
@@ -12556,7 +12058,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K311" t="inlineStr">
         <is>
@@ -12595,7 +12097,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K312" t="inlineStr">
         <is>
@@ -12634,7 +12136,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K313" t="inlineStr">
         <is>
@@ -12673,7 +12175,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K314" t="inlineStr">
         <is>
@@ -12712,7 +12214,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
@@ -12751,7 +12253,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K316" t="inlineStr">
         <is>
@@ -12790,7 +12292,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K317" t="inlineStr">
         <is>
@@ -12829,7 +12331,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K318" t="inlineStr">
         <is>
@@ -12868,7 +12370,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K319" t="inlineStr">
         <is>
@@ -12907,7 +12409,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K320" t="inlineStr">
         <is>
@@ -12946,7 +12448,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K321" t="inlineStr">
         <is>
@@ -12985,7 +12487,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K322" t="inlineStr">
         <is>
@@ -13024,7 +12526,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K323" t="inlineStr">
         <is>
@@ -13063,7 +12565,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K324" t="inlineStr">
         <is>
@@ -13102,7 +12604,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K325" t="inlineStr">
         <is>
@@ -13141,7 +12643,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K326" t="inlineStr">
         <is>
@@ -13180,7 +12682,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K327" t="inlineStr">
         <is>
@@ -13219,7 +12721,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K328" t="inlineStr">
         <is>
@@ -13258,7 +12760,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K329" t="inlineStr">
         <is>
@@ -13297,7 +12799,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K330" t="inlineStr">
         <is>
@@ -13336,7 +12838,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K331" t="inlineStr">
         <is>
@@ -13375,7 +12877,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K332" t="inlineStr">
         <is>
@@ -13410,19 +12912,19 @@
         <v>1137729.66020865</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="n">
-        <v>47.67</v>
+        <v>47.85</v>
       </c>
       <c r="K333" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L333" t="n">
-        <v>1.030242290748899</v>
+        <v>1</v>
       </c>
       <c r="M333" t="inlineStr"/>
     </row>
@@ -13452,8 +12954,14 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -13485,8 +12993,14 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -13518,8 +13032,14 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -13551,8 +13071,14 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -13581,11 +13107,17 @@
         <v>1021078.41920865</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -13617,8 +13149,14 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -13650,8 +13188,14 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -13680,11 +13224,17 @@
         <v>901404.3604086499</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13713,11 +13263,17 @@
         <v>901386.1623086499</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13749,8 +13305,14 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13779,11 +13341,17 @@
         <v>1099936.66990865</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13812,11 +13380,17 @@
         <v>1099936.66990865</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13848,8 +13422,14 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13881,8 +13461,14 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13914,8 +13500,14 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13947,8 +13539,14 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13980,8 +13578,14 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -14013,8 +13617,14 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -14046,8 +13656,14 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -14079,8 +13695,14 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -14112,8 +13734,14 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -14145,8 +13773,14 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -14178,8 +13812,14 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -14211,8 +13851,14 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -14244,8 +13890,14 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -14277,8 +13929,14 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -14310,8 +13968,14 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -14343,8 +14007,14 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -14376,8 +14046,14 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -14409,8 +14085,14 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -14442,8 +14124,14 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -14475,8 +14163,14 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -14508,8 +14202,14 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -14541,8 +14241,14 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -14574,8 +14280,14 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -14607,8 +14319,14 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -14640,8 +14358,14 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -14673,8 +14397,14 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -14706,8 +14436,14 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -14739,8 +14475,14 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -14772,8 +14514,14 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -14805,8 +14553,14 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -14838,8 +14592,14 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14871,8 +14631,14 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14904,8 +14670,14 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14937,8 +14709,14 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14970,8 +14748,14 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -15003,8 +14787,14 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -15036,8 +14826,14 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -15069,8 +14865,14 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -15102,8 +14904,14 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -15135,8 +14943,14 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -15168,8 +14982,14 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -15201,8 +15021,14 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -15234,8 +15060,14 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -15267,8 +15099,14 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -15300,8 +15138,14 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -15333,8 +15177,14 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -15366,8 +15216,14 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -15399,8 +15255,14 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -15432,8 +15294,14 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -15465,8 +15333,14 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -15498,8 +15372,14 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -15531,8 +15411,14 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -15564,8 +15450,14 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -15597,8 +15489,14 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -15630,8 +15528,14 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -15663,8 +15567,14 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -15696,8 +15606,14 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -15726,11 +15642,17 @@
         <v>1564386.49730547</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -15759,11 +15681,17 @@
         <v>1564614.57820547</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -15792,11 +15720,17 @@
         <v>1560595.61700547</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -15825,11 +15759,17 @@
         <v>1559469.447605469</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -15858,11 +15798,17 @@
         <v>1559886.137760489</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15891,11 +15837,17 @@
         <v>1543939.59646049</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15924,11 +15876,17 @@
         <v>1509820.68676049</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15957,11 +15915,17 @@
         <v>1509820.68676049</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15990,11 +15954,17 @@
         <v>1440873.70986049</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -16023,11 +15993,17 @@
         <v>1445561.19826049</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -16056,11 +16032,17 @@
         <v>1445561.19826049</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -16089,11 +16071,17 @@
         <v>1481643.68296049</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -16122,11 +16110,17 @@
         <v>1443870.09066049</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -16155,11 +16149,17 @@
         <v>1451850.02516049</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -16188,11 +16188,17 @@
         <v>1451850.02516049</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -16221,11 +16227,17 @@
         <v>1456246.09486049</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -16254,11 +16266,17 @@
         <v>1456246.09486049</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -16290,8 +16308,14 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -16323,8 +16347,14 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -16356,8 +16386,14 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -16389,8 +16425,14 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -16422,8 +16464,14 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -16455,8 +16503,14 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -16488,8 +16542,14 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -16521,8 +16581,14 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -16554,8 +16620,14 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -16587,8 +16659,14 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -16620,8 +16698,14 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -16653,8 +16737,14 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -16686,8 +16776,14 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -16719,8 +16815,14 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -16752,8 +16854,14 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -16785,8 +16893,14 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -16818,8 +16932,14 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -16851,8 +16971,14 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -16884,8 +17010,14 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -16914,11 +17046,17 @@
         <v>1803097.858402029</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -16947,11 +17085,17 @@
         <v>1798870.048702029</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -16980,11 +17124,17 @@
         <v>1804200.529302029</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -17013,11 +17163,17 @@
         <v>1804485.529302029</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -17046,11 +17202,17 @@
         <v>1804485.529302029</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -17079,11 +17241,17 @@
         <v>1804485.529302029</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -17112,11 +17280,17 @@
         <v>1804500.529302029</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -17145,11 +17319,17 @@
         <v>1802463.529302029</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -17178,11 +17358,17 @@
         <v>1798275.551902029</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -17211,11 +17397,17 @@
         <v>1488764.852002029</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -17244,11 +17436,17 @@
         <v>1517283.130502029</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -17277,11 +17475,17 @@
         <v>1517283.130502029</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -17310,11 +17514,17 @@
         <v>1517283.130502029</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -17346,8 +17556,14 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -17379,8 +17595,14 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -17412,8 +17634,14 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -17445,8 +17673,14 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -17478,8 +17712,14 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -17511,8 +17751,14 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -17544,8 +17790,14 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -17577,8 +17829,14 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -17610,8 +17868,14 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -17640,11 +17904,17 @@
         <v>1499288.450302029</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -17676,8 +17946,14 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -17709,8 +17985,14 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -17739,11 +18021,17 @@
         <v>1501127.847102029</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -17772,11 +18060,17 @@
         <v>1501127.847102029</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -17805,11 +18099,17 @@
         <v>1340053.843702029</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -17838,11 +18138,17 @@
         <v>1438320.451002029</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -17871,11 +18177,17 @@
         <v>1435259.001702029</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -17904,11 +18216,17 @@
         <v>1449866.901702029</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -17937,11 +18255,17 @@
         <v>1275083.008502029</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -17970,11 +18294,17 @@
         <v>1275083.008502029</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -18003,11 +18333,17 @@
         <v>1271745.925702029</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -18036,11 +18372,17 @@
         <v>1240562.010902029</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -18069,11 +18411,17 @@
         <v>1240719.701702029</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -18102,11 +18450,17 @@
         <v>1216023.955502029</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -18135,11 +18489,17 @@
         <v>1197593.691302029</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -18171,8 +18531,14 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -18201,11 +18567,17 @@
         <v>1335305.401802029</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -18237,8 +18609,14 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -18267,11 +18645,17 @@
         <v>1310125.720602029</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -18300,11 +18684,17 @@
         <v>1497453.959802029</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -18333,11 +18723,17 @@
         <v>1505141.258602029</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -18366,11 +18762,17 @@
         <v>1672928.159202029</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -18402,8 +18804,14 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -18435,8 +18843,14 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -18468,8 +18882,14 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -18501,8 +18921,14 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -18534,8 +18960,14 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -18567,8 +18999,14 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -18600,8 +19038,14 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -18633,8 +19077,14 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -18666,8 +19116,14 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -18699,8 +19155,14 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -18732,8 +19194,14 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -18765,8 +19233,14 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -18798,8 +19272,14 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -18831,8 +19311,14 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -18864,8 +19350,14 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -18897,8 +19389,14 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -18930,8 +19428,14 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -18963,8 +19467,14 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -18996,8 +19506,14 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -19029,8 +19545,14 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -19062,8 +19584,14 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -19095,8 +19623,14 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -19128,8 +19662,14 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -19161,8 +19701,14 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -19194,8 +19740,14 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -19227,8 +19779,14 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -19260,8 +19818,14 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -19293,8 +19857,14 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -19326,8 +19896,14 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -19359,8 +19935,14 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="J513" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -19392,8 +19974,14 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -19425,8 +20013,14 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="J515" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -19458,8 +20052,14 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -19491,8 +20091,14 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="J517" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -19524,8 +20130,14 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -19557,8 +20169,14 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="J519" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -19590,8 +20208,14 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="J520" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -19623,8 +20247,14 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="J521" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -19656,8 +20286,14 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="J522" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -19689,8 +20325,14 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="J523" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -19722,8 +20364,14 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="J524" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -19755,8 +20403,14 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="J525" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -19788,8 +20442,14 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="J526" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -19821,8 +20481,14 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="J527" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -19854,8 +20520,14 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="J528" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -19887,8 +20559,14 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="J529" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -19920,8 +20598,14 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="J530" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -19953,8 +20637,14 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -19986,8 +20676,14 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="J532" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -20019,8 +20715,14 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="J533" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -20052,8 +20754,14 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="J534" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -20085,8 +20793,14 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="J535" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -20118,8 +20832,14 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="J536" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -20151,8 +20871,14 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="J537" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -20184,8 +20910,14 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="J538" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -20217,8 +20949,14 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="J539" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -20250,8 +20988,14 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="J540" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -20283,8 +21027,14 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="J541" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -20316,8 +21066,14 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="J542" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -20349,8 +21105,14 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="J543" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -20382,8 +21144,14 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="J544" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -20415,14 +21183,20 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="J545" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
       <c r="M545" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest ADA.xlsx
+++ b/BackTest/2020-01-21 BackTest ADA.xlsx
@@ -946,14 +946,10 @@
         <v>251608.73</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>47.44</v>
-      </c>
-      <c r="J17" t="n">
-        <v>47.44</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
@@ -983,19 +979,11 @@
         <v>251838.8956</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>47.44</v>
-      </c>
-      <c r="J18" t="n">
-        <v>47.44</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1024,19 +1012,11 @@
         <v>251838.8956</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>47.49</v>
-      </c>
-      <c r="J19" t="n">
-        <v>47.44</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1065,14 +1045,10 @@
         <v>245847.6398</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>47.49</v>
-      </c>
-      <c r="J20" t="n">
-        <v>47.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
@@ -1102,19 +1078,11 @@
         <v>245847.6398</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>47.38</v>
-      </c>
-      <c r="J21" t="n">
-        <v>47.49</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1143,19 +1111,11 @@
         <v>245847.6398</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>47.38</v>
-      </c>
-      <c r="J22" t="n">
-        <v>47.49</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1184,14 +1144,10 @@
         <v>240475.2116</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>47.38</v>
-      </c>
-      <c r="J23" t="n">
-        <v>47.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
@@ -1221,19 +1177,11 @@
         <v>240475.2116</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="J24" t="n">
-        <v>47.38</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1262,19 +1210,11 @@
         <v>240492.0443</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="J25" t="n">
-        <v>47.38</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1303,19 +1243,11 @@
         <v>235197.99092024</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>47.44</v>
-      </c>
-      <c r="J26" t="n">
-        <v>47.38</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1344,19 +1276,11 @@
         <v>235513.62602024</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="J27" t="n">
-        <v>47.38</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1391,13 +1315,9 @@
         <v>47.47</v>
       </c>
       <c r="J28" t="n">
-        <v>47.38</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>47.47</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1430,11 +1350,11 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
-        <v>47.38</v>
+        <v>47.47</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L29" t="n">
@@ -1469,11 +1389,11 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
-        <v>47.38</v>
+        <v>47.47</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L30" t="n">
@@ -1507,14 +1427,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>47.38</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1546,14 +1460,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>47.38</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1585,14 +1493,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>47.38</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1624,14 +1526,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>47.38</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1663,14 +1559,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>47.38</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1702,14 +1592,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>47.38</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1741,14 +1625,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>47.38</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1780,14 +1658,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>47.38</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1819,14 +1691,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>47.38</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1858,14 +1724,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>47.38</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1897,14 +1757,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>47.38</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1936,14 +1790,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>47.38</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1975,14 +1823,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>47.38</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2014,14 +1856,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>47.38</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2053,14 +1889,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>47.38</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2092,14 +1922,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>47.38</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2131,14 +1955,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>47.38</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2170,14 +1988,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>47.38</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2209,14 +2021,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>47.38</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2248,14 +2054,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>47.38</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2287,14 +2087,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>47.38</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2326,14 +2120,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>47.38</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2365,14 +2153,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>47.38</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2404,14 +2186,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>47.38</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2443,14 +2219,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>47.38</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2482,14 +2252,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>47.38</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2521,14 +2285,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>47.38</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2557,19 +2315,13 @@
         <v>358944.5949933001</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>47.38</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
-        <v>1.018216547066273</v>
+        <v>1</v>
       </c>
       <c r="M58" t="inlineStr"/>
     </row>
@@ -2662,7 +2414,7 @@
         <v>359180.6004933001</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2695,7 +2447,7 @@
         <v>390553.4467933001</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2728,7 +2480,7 @@
         <v>390553.4467933001</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2761,7 +2513,7 @@
         <v>386318.6336933001</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2794,7 +2546,7 @@
         <v>338346.0747933001</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2827,7 +2579,7 @@
         <v>306807.3153933001</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2860,7 +2612,7 @@
         <v>342577.1735933001</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2959,7 +2711,7 @@
         <v>344683.1384933001</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2992,7 +2744,7 @@
         <v>450060.7194933001</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -3025,7 +2777,7 @@
         <v>453762.3181432401</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3058,7 +2810,7 @@
         <v>453638.8382747201</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3091,7 +2843,7 @@
         <v>412504.6060747202</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3124,7 +2876,7 @@
         <v>410649.5037747201</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3157,7 +2909,7 @@
         <v>410649.5037747201</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3190,7 +2942,7 @@
         <v>317688.4610747201</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -4741,14 +4493,10 @@
         <v>-367710.5583520599</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="J124" t="n">
-        <v>47.85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
@@ -4778,19 +4526,11 @@
         <v>-367710.5583520599</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="J125" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4822,14 +4562,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4858,19 +4592,11 @@
         <v>-363331.3144520599</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>47.81</v>
-      </c>
-      <c r="J127" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4902,14 +4628,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4938,19 +4658,11 @@
         <v>-596389.5272520599</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>47.81</v>
-      </c>
-      <c r="J129" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4979,19 +4691,11 @@
         <v>-596389.5272520599</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>47.8</v>
-      </c>
-      <c r="J130" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5026,13 +4730,9 @@
         <v>47.8</v>
       </c>
       <c r="J131" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>47.8</v>
+      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5067,11 +4767,11 @@
         <v>47.8</v>
       </c>
       <c r="J132" t="n">
-        <v>47.85</v>
+        <v>47.8</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L132" t="n">
@@ -5108,11 +4808,11 @@
         <v>47.81</v>
       </c>
       <c r="J133" t="n">
-        <v>47.85</v>
+        <v>47.8</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L133" t="n">
@@ -5149,13 +4849,9 @@
         <v>47.82</v>
       </c>
       <c r="J134" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>47.82</v>
+      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5190,11 +4886,11 @@
         <v>47.9</v>
       </c>
       <c r="J135" t="n">
-        <v>47.85</v>
+        <v>47.82</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L135" t="n">
@@ -5231,11 +4927,11 @@
         <v>48</v>
       </c>
       <c r="J136" t="n">
-        <v>47.85</v>
+        <v>47.82</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L136" t="n">
@@ -5266,17 +4962,15 @@
         <v>-435106.7849520601</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>48.02</v>
+      </c>
       <c r="J137" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>48.02</v>
+      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5311,11 +5005,11 @@
         <v>47.81</v>
       </c>
       <c r="J138" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L138" t="n">
@@ -5346,15 +5040,17 @@
         <v>-412539.4380520601</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>48.01</v>
+      </c>
       <c r="J139" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L139" t="n">
@@ -5385,11 +5081,13 @@
         <v>-272817.2275520601</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>47.8</v>
+      </c>
       <c r="J140" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5424,11 +5122,13 @@
         <v>-292376.8365520601</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>47.98</v>
+      </c>
       <c r="J141" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5463,11 +5163,13 @@
         <v>-291563.4133520601</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>47.85</v>
+      </c>
       <c r="J142" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5502,11 +5204,13 @@
         <v>-286163.01455206</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>48.03</v>
+      </c>
       <c r="J143" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5541,11 +5245,13 @@
         <v>-286163.01455206</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>48.17</v>
+      </c>
       <c r="J144" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -5580,11 +5286,13 @@
         <v>-286163.01455206</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>48.17</v>
+      </c>
       <c r="J145" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -5619,11 +5327,13 @@
         <v>-286163.01455206</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>48.17</v>
+      </c>
       <c r="J146" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -5658,11 +5368,13 @@
         <v>-288480.73115206</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>48.17</v>
+      </c>
       <c r="J147" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -5697,11 +5409,13 @@
         <v>-178118.10665206</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>48.02</v>
+      </c>
       <c r="J148" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -5736,11 +5450,13 @@
         <v>-208118.10665206</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>48.13</v>
+      </c>
       <c r="J149" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -5775,11 +5491,13 @@
         <v>-192684.79875206</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>47.85</v>
+      </c>
       <c r="J150" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -5814,11 +5532,13 @@
         <v>-189999.6653520601</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>48.07</v>
+      </c>
       <c r="J151" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -5853,11 +5573,13 @@
         <v>-192844.57455206</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>48.15</v>
+      </c>
       <c r="J152" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -5892,11 +5614,13 @@
         <v>-192844.57455206</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>48.07</v>
+      </c>
       <c r="J153" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -5931,11 +5655,13 @@
         <v>-189549.47075206</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>48.07</v>
+      </c>
       <c r="J154" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -5970,11 +5696,13 @@
         <v>-190281.09585206</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>48.22</v>
+      </c>
       <c r="J155" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -6009,11 +5737,13 @@
         <v>-190689.55795206</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>48.05</v>
+      </c>
       <c r="J156" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -6048,11 +5778,13 @@
         <v>-186315.03685206</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>47.85</v>
+      </c>
       <c r="J157" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -6087,11 +5819,13 @@
         <v>-178284.13115206</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>48.16</v>
+      </c>
       <c r="J158" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -6126,11 +5860,13 @@
         <v>-180241.05955206</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>48.47</v>
+      </c>
       <c r="J159" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -6165,11 +5901,13 @@
         <v>-156222.92405206</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>48.28</v>
+      </c>
       <c r="J160" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -6204,11 +5942,13 @@
         <v>273113.5475479399</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>48.3</v>
+      </c>
       <c r="J161" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6243,11 +5983,13 @@
         <v>271886.66694794</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>48.38</v>
+      </c>
       <c r="J162" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6282,11 +6024,13 @@
         <v>256292.7390479399</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>48.02</v>
+      </c>
       <c r="J163" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6321,11 +6065,13 @@
         <v>256292.7390479399</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>48.01</v>
+      </c>
       <c r="J164" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6360,11 +6106,13 @@
         <v>256313.7390479399</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>48.01</v>
+      </c>
       <c r="J165" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6399,11 +6147,13 @@
         <v>282841.6374189699</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>48.02</v>
+      </c>
       <c r="J166" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6438,11 +6188,13 @@
         <v>344939.97111897</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>48.11</v>
+      </c>
       <c r="J167" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6481,7 +6233,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6520,7 +6272,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6559,7 +6311,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6598,7 +6350,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -6637,7 +6389,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -6676,7 +6428,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -6715,7 +6467,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -6754,7 +6506,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -6793,7 +6545,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -6832,7 +6584,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -6871,7 +6623,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -6910,7 +6662,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -6949,7 +6701,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -6988,7 +6740,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -7027,7 +6779,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -7066,7 +6818,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -7105,7 +6857,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -7144,7 +6896,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -7183,7 +6935,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -7222,7 +6974,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -7261,7 +7013,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -7300,7 +7052,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -7339,7 +7091,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -7378,7 +7130,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -7417,7 +7169,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -7456,7 +7208,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -7495,7 +7247,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -7534,7 +7286,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -7573,7 +7325,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -7612,7 +7364,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -7651,7 +7403,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -7690,7 +7442,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -7729,7 +7481,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -7768,7 +7520,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -7807,7 +7559,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -7846,7 +7598,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -7885,7 +7637,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -7924,7 +7676,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -7963,7 +7715,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -8002,7 +7754,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -8041,7 +7793,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -8080,7 +7832,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -8119,7 +7871,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -8158,7 +7910,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -8197,7 +7949,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -8236,7 +7988,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -8275,7 +8027,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -8314,7 +8066,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -8353,7 +8105,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
@@ -8392,7 +8144,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
@@ -8431,7 +8183,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
@@ -8470,7 +8222,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
@@ -8509,7 +8261,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
@@ -8548,7 +8300,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -8587,7 +8339,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -8626,7 +8378,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
@@ -8665,7 +8417,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
@@ -8704,7 +8456,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
@@ -8743,7 +8495,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
@@ -8782,7 +8534,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
@@ -8821,7 +8573,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
@@ -8860,7 +8612,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -8899,7 +8651,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -8938,7 +8690,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -8977,7 +8729,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
@@ -9016,7 +8768,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
@@ -9055,7 +8807,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
@@ -9094,7 +8846,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
@@ -9133,7 +8885,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
@@ -9172,7 +8924,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
@@ -9211,7 +8963,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
@@ -9250,7 +9002,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
@@ -9289,7 +9041,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
@@ -9328,7 +9080,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
@@ -9367,7 +9119,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
@@ -9406,7 +9158,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K243" t="inlineStr">
         <is>
@@ -9445,7 +9197,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
@@ -9484,7 +9236,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K245" t="inlineStr">
         <is>
@@ -9523,7 +9275,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
@@ -9562,7 +9314,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
@@ -9601,7 +9353,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
@@ -9640,7 +9392,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
@@ -9679,7 +9431,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
@@ -9718,7 +9470,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K251" t="inlineStr">
         <is>
@@ -9757,7 +9509,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K252" t="inlineStr">
         <is>
@@ -9796,7 +9548,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K253" t="inlineStr">
         <is>
@@ -9835,7 +9587,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
@@ -9874,7 +9626,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
@@ -9913,7 +9665,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
@@ -9952,7 +9704,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
@@ -9991,7 +9743,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
@@ -10030,7 +9782,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K259" t="inlineStr">
         <is>
@@ -10069,7 +9821,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K260" t="inlineStr">
         <is>
@@ -10108,7 +9860,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K261" t="inlineStr">
         <is>
@@ -10147,7 +9899,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K262" t="inlineStr">
         <is>
@@ -10186,7 +9938,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K263" t="inlineStr">
         <is>
@@ -10225,7 +9977,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K264" t="inlineStr">
         <is>
@@ -10264,7 +10016,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K265" t="inlineStr">
         <is>
@@ -10303,7 +10055,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K266" t="inlineStr">
         <is>
@@ -10342,7 +10094,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K267" t="inlineStr">
         <is>
@@ -10381,7 +10133,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K268" t="inlineStr">
         <is>
@@ -10420,7 +10172,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K269" t="inlineStr">
         <is>
@@ -10459,7 +10211,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K270" t="inlineStr">
         <is>
@@ -10498,7 +10250,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K271" t="inlineStr">
         <is>
@@ -10537,7 +10289,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
@@ -10576,7 +10328,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
@@ -10615,7 +10367,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
@@ -10654,7 +10406,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
@@ -10693,7 +10445,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
@@ -10732,7 +10484,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
@@ -10771,7 +10523,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
@@ -10810,7 +10562,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K279" t="inlineStr">
         <is>
@@ -10849,7 +10601,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
@@ -10888,7 +10640,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
@@ -10927,7 +10679,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
@@ -10966,7 +10718,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
@@ -11005,7 +10757,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
@@ -11044,7 +10796,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
@@ -11083,7 +10835,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
@@ -11122,7 +10874,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
@@ -11161,7 +10913,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K288" t="inlineStr">
         <is>
@@ -11200,7 +10952,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
@@ -11239,7 +10991,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>
@@ -11278,7 +11030,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
@@ -11317,7 +11069,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
@@ -11356,7 +11108,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K293" t="inlineStr">
         <is>
@@ -11395,7 +11147,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K294" t="inlineStr">
         <is>
@@ -11434,7 +11186,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
@@ -11473,7 +11225,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
@@ -11512,7 +11264,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
@@ -11551,7 +11303,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
@@ -11590,7 +11342,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K299" t="inlineStr">
         <is>
@@ -11629,7 +11381,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K300" t="inlineStr">
         <is>
@@ -11668,7 +11420,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K301" t="inlineStr">
         <is>
@@ -11707,7 +11459,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K302" t="inlineStr">
         <is>
@@ -11746,7 +11498,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K303" t="inlineStr">
         <is>
@@ -11785,7 +11537,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K304" t="inlineStr">
         <is>
@@ -11824,7 +11576,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
@@ -11863,7 +11615,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K306" t="inlineStr">
         <is>
@@ -11902,7 +11654,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K307" t="inlineStr">
         <is>
@@ -11941,7 +11693,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K308" t="inlineStr">
         <is>
@@ -11980,7 +11732,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K309" t="inlineStr">
         <is>
@@ -12019,7 +11771,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K310" t="inlineStr">
         <is>
@@ -12058,7 +11810,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K311" t="inlineStr">
         <is>
@@ -12097,7 +11849,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K312" t="inlineStr">
         <is>
@@ -12136,7 +11888,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K313" t="inlineStr">
         <is>
@@ -12175,7 +11927,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K314" t="inlineStr">
         <is>
@@ -12214,7 +11966,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
@@ -12253,7 +12005,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K316" t="inlineStr">
         <is>
@@ -12292,7 +12044,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K317" t="inlineStr">
         <is>
@@ -12331,7 +12083,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K318" t="inlineStr">
         <is>
@@ -12370,7 +12122,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K319" t="inlineStr">
         <is>
@@ -12409,7 +12161,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K320" t="inlineStr">
         <is>
@@ -12448,7 +12200,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K321" t="inlineStr">
         <is>
@@ -12487,7 +12239,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K322" t="inlineStr">
         <is>
@@ -12526,7 +12278,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K323" t="inlineStr">
         <is>
@@ -12565,7 +12317,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K324" t="inlineStr">
         <is>
@@ -12604,7 +12356,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K325" t="inlineStr">
         <is>
@@ -12643,7 +12395,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K326" t="inlineStr">
         <is>
@@ -12682,7 +12434,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K327" t="inlineStr">
         <is>
@@ -12721,7 +12473,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K328" t="inlineStr">
         <is>
@@ -12760,7 +12512,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K329" t="inlineStr">
         <is>
@@ -12799,7 +12551,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K330" t="inlineStr">
         <is>
@@ -12838,7 +12590,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K331" t="inlineStr">
         <is>
@@ -12877,7 +12629,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K332" t="inlineStr">
         <is>
@@ -12916,7 +12668,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K333" t="inlineStr">
         <is>
@@ -12955,7 +12707,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K334" t="inlineStr">
         <is>
@@ -12994,7 +12746,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K335" t="inlineStr">
         <is>
@@ -13033,7 +12785,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K336" t="inlineStr">
         <is>
@@ -13072,7 +12824,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K337" t="inlineStr">
         <is>
@@ -13111,7 +12863,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K338" t="inlineStr">
         <is>
@@ -13150,7 +12902,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K339" t="inlineStr">
         <is>
@@ -13189,7 +12941,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K340" t="inlineStr">
         <is>
@@ -13228,7 +12980,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K341" t="inlineStr">
         <is>
@@ -13267,7 +13019,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K342" t="inlineStr">
         <is>
@@ -13306,7 +13058,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K343" t="inlineStr">
         <is>
@@ -13345,7 +13097,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K344" t="inlineStr">
         <is>
@@ -13384,7 +13136,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K345" t="inlineStr">
         <is>
@@ -13423,7 +13175,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K346" t="inlineStr">
         <is>
@@ -13462,7 +13214,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K347" t="inlineStr">
         <is>
@@ -13501,7 +13253,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K348" t="inlineStr">
         <is>
@@ -13540,7 +13292,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K349" t="inlineStr">
         <is>
@@ -13579,7 +13331,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K350" t="inlineStr">
         <is>
@@ -13618,7 +13370,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K351" t="inlineStr">
         <is>
@@ -13657,7 +13409,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K352" t="inlineStr">
         <is>
@@ -13696,7 +13448,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K353" t="inlineStr">
         <is>
@@ -13735,7 +13487,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K354" t="inlineStr">
         <is>
@@ -13774,7 +13526,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K355" t="inlineStr">
         <is>
@@ -13813,7 +13565,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K356" t="inlineStr">
         <is>
@@ -13852,7 +13604,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K357" t="inlineStr">
         <is>
@@ -13891,7 +13643,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K358" t="inlineStr">
         <is>
@@ -13930,7 +13682,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K359" t="inlineStr">
         <is>
@@ -13969,7 +13721,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K360" t="inlineStr">
         <is>
@@ -14008,7 +13760,7 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K361" t="inlineStr">
         <is>
@@ -14047,7 +13799,7 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K362" t="inlineStr">
         <is>
@@ -14086,7 +13838,7 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K363" t="inlineStr">
         <is>
@@ -14125,7 +13877,7 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K364" t="inlineStr">
         <is>
@@ -14164,7 +13916,7 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K365" t="inlineStr">
         <is>
@@ -14203,7 +13955,7 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K366" t="inlineStr">
         <is>
@@ -14242,7 +13994,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K367" t="inlineStr">
         <is>
@@ -14281,7 +14033,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K368" t="inlineStr">
         <is>
@@ -14320,7 +14072,7 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K369" t="inlineStr">
         <is>
@@ -14359,7 +14111,7 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K370" t="inlineStr">
         <is>
@@ -14398,7 +14150,7 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K371" t="inlineStr">
         <is>
@@ -14437,7 +14189,7 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K372" t="inlineStr">
         <is>
@@ -14476,7 +14228,7 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K373" t="inlineStr">
         <is>
@@ -14515,7 +14267,7 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K374" t="inlineStr">
         <is>
@@ -14554,7 +14306,7 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K375" t="inlineStr">
         <is>
@@ -14593,7 +14345,7 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K376" t="inlineStr">
         <is>
@@ -14632,7 +14384,7 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K377" t="inlineStr">
         <is>
@@ -14671,7 +14423,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K378" t="inlineStr">
         <is>
@@ -14710,7 +14462,7 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K379" t="inlineStr">
         <is>
@@ -14749,7 +14501,7 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K380" t="inlineStr">
         <is>
@@ -14788,7 +14540,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K381" t="inlineStr">
         <is>
@@ -14827,7 +14579,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K382" t="inlineStr">
         <is>
@@ -14866,7 +14618,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K383" t="inlineStr">
         <is>
@@ -14905,7 +14657,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K384" t="inlineStr">
         <is>
@@ -14944,7 +14696,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K385" t="inlineStr">
         <is>
@@ -14983,7 +14735,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K386" t="inlineStr">
         <is>
@@ -15022,7 +14774,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K387" t="inlineStr">
         <is>
@@ -15061,7 +14813,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K388" t="inlineStr">
         <is>
@@ -15096,19 +14848,19 @@
         <v>1498464.16437877</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="n">
-        <v>47.85</v>
+        <v>48.02</v>
       </c>
       <c r="K389" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L389" t="n">
-        <v>1</v>
+        <v>1.033525614327364</v>
       </c>
       <c r="M389" t="inlineStr"/>
     </row>
@@ -15135,17 +14887,11 @@
         <v>1523593.16437877</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -15174,17 +14920,11 @@
         <v>1730610.13370547</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -15213,17 +14953,11 @@
         <v>1730610.13370547</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -15252,17 +14986,11 @@
         <v>1730599.59240547</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -15291,17 +15019,11 @@
         <v>1732877.31250547</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -15330,17 +15052,11 @@
         <v>1757138.21250547</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -15369,17 +15085,11 @@
         <v>1733031.68130547</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -15408,17 +15118,11 @@
         <v>1689196.87870547</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -15447,17 +15151,11 @@
         <v>1670232.11640547</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -15486,17 +15184,11 @@
         <v>1675324.94430547</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -15525,17 +15217,11 @@
         <v>1674052.25700547</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -15564,17 +15250,11 @@
         <v>1674052.25700547</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -15603,17 +15283,11 @@
         <v>1607336.49730547</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -15642,17 +15316,11 @@
         <v>1564386.49730547</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -15681,17 +15349,11 @@
         <v>1564614.57820547</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J404" t="inlineStr"/>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -15720,17 +15382,11 @@
         <v>1560595.61700547</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -15762,14 +15418,8 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J406" t="inlineStr"/>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -15801,14 +15451,8 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J407" t="inlineStr"/>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15840,14 +15484,8 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J408" t="inlineStr"/>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15879,14 +15517,8 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J409" t="inlineStr"/>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15918,14 +15550,8 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15957,14 +15583,8 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15996,14 +15616,8 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J412" t="inlineStr"/>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -16035,14 +15649,8 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J413" t="inlineStr"/>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -16074,14 +15682,8 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J414" t="inlineStr"/>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -16113,14 +15715,8 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J415" t="inlineStr"/>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -16152,14 +15748,8 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -16191,14 +15781,8 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J417" t="inlineStr"/>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -16227,17 +15811,11 @@
         <v>1456246.09486049</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J418" t="inlineStr"/>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -16266,17 +15844,11 @@
         <v>1456246.09486049</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J419" t="inlineStr"/>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -16305,17 +15877,11 @@
         <v>1456246.09486049</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J420" t="inlineStr"/>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -16344,17 +15910,11 @@
         <v>1476789.23946049</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J421" t="inlineStr"/>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -16383,17 +15943,11 @@
         <v>1492536.07696049</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -16422,17 +15976,11 @@
         <v>1492536.07696049</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -16461,17 +16009,11 @@
         <v>1512546.03206049</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -16500,17 +16042,11 @@
         <v>1512423.302660489</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J425" t="inlineStr"/>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -16539,17 +16075,11 @@
         <v>1821934.00250203</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -16578,17 +16108,11 @@
         <v>1787144.00250203</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -16617,17 +16141,11 @@
         <v>1789856.29240203</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J428" t="inlineStr"/>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -16656,17 +16174,11 @@
         <v>1789856.29240203</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J429" t="inlineStr"/>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -16695,17 +16207,11 @@
         <v>1789856.29240203</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J430" t="inlineStr"/>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -16734,17 +16240,11 @@
         <v>1789856.29240203</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J431" t="inlineStr"/>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -16773,17 +16273,11 @@
         <v>1789856.29240203</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J432" t="inlineStr"/>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -16812,17 +16306,11 @@
         <v>1788404.29240203</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -16851,17 +16339,11 @@
         <v>1788404.29240203</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -16890,17 +16372,11 @@
         <v>1808491.256102029</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -16932,14 +16408,8 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -16968,17 +16438,11 @@
         <v>1804056.256102029</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -17010,14 +16474,8 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J438" t="inlineStr"/>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -17049,14 +16507,8 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -17088,14 +16540,8 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J440" t="inlineStr"/>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -17127,14 +16573,8 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J441" t="inlineStr"/>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -17166,14 +16606,8 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J442" t="inlineStr"/>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -17205,14 +16639,8 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J443" t="inlineStr"/>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -17244,14 +16672,8 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J444" t="inlineStr"/>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -17283,14 +16705,8 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J445" t="inlineStr"/>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -17322,14 +16738,8 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J446" t="inlineStr"/>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -17361,14 +16771,8 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J447" t="inlineStr"/>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -17400,14 +16804,8 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J448" t="inlineStr"/>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -17439,14 +16837,8 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J449" t="inlineStr"/>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -17478,14 +16870,8 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J450" t="inlineStr"/>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -17517,14 +16903,8 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J451" t="inlineStr"/>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -17556,14 +16936,8 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J452" t="inlineStr"/>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -17595,14 +16969,8 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J453" t="inlineStr"/>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -17634,14 +17002,8 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J454" t="inlineStr"/>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -17673,14 +17035,8 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J455" t="inlineStr"/>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -17712,14 +17068,8 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J456" t="inlineStr"/>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -17751,14 +17101,8 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J457" t="inlineStr"/>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -17790,14 +17134,8 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J458" t="inlineStr"/>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -17829,14 +17167,8 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -17868,14 +17200,8 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J460" t="inlineStr"/>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -17907,14 +17233,8 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J461" t="inlineStr"/>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -17946,14 +17266,8 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J462" t="inlineStr"/>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -17985,14 +17299,8 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J463" t="inlineStr"/>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -18024,14 +17332,8 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J464" t="inlineStr"/>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -18063,14 +17365,8 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J465" t="inlineStr"/>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -18102,14 +17398,8 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J466" t="inlineStr"/>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -18141,14 +17431,8 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J467" t="inlineStr"/>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -18180,14 +17464,8 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J468" t="inlineStr"/>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -18219,14 +17497,8 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J469" t="inlineStr"/>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -18258,14 +17530,8 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J470" t="inlineStr"/>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -18297,14 +17563,8 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J471" t="inlineStr"/>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -18336,14 +17596,8 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J472" t="inlineStr"/>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -18375,14 +17629,8 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J473" t="inlineStr"/>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -18414,14 +17662,8 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J474" t="inlineStr"/>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -18453,14 +17695,8 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J475" t="inlineStr"/>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -18492,14 +17728,8 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J476" t="inlineStr"/>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -18531,14 +17761,8 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J477" t="inlineStr"/>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -18570,14 +17794,8 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J478" t="inlineStr"/>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -18609,14 +17827,8 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J479" t="inlineStr"/>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -18648,14 +17860,8 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J480" t="inlineStr"/>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -18687,14 +17893,8 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J481" t="inlineStr"/>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -18726,14 +17926,8 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J482" t="inlineStr"/>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -18765,14 +17959,8 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J483" t="inlineStr"/>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -18804,14 +17992,8 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J484" t="inlineStr"/>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -18843,14 +18025,8 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J485" t="inlineStr"/>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -18882,14 +18058,8 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J486" t="inlineStr"/>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -18921,14 +18091,8 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J487" t="inlineStr"/>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -18960,14 +18124,8 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J488" t="inlineStr"/>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -18999,14 +18157,8 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J489" t="inlineStr"/>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -19038,14 +18190,8 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J490" t="inlineStr"/>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -19077,14 +18223,8 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J491" t="inlineStr"/>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -19116,14 +18256,8 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J492" t="inlineStr"/>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -19155,14 +18289,8 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J493" t="inlineStr"/>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -19194,14 +18322,8 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J494" t="inlineStr"/>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -19233,14 +18355,8 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J495" t="inlineStr"/>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -19272,14 +18388,8 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J496" t="inlineStr"/>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -19311,14 +18421,8 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J497" t="inlineStr"/>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -19350,14 +18454,8 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J498" t="inlineStr"/>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -19389,14 +18487,8 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J499" t="inlineStr"/>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -19428,14 +18520,8 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J500" t="inlineStr"/>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -19467,14 +18553,8 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J501" t="inlineStr"/>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -19506,14 +18586,8 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J502" t="inlineStr"/>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -19545,14 +18619,8 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J503" t="inlineStr"/>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -19584,14 +18652,8 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J504" t="inlineStr"/>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -19623,14 +18685,8 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J505" t="inlineStr"/>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -19662,14 +18718,8 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J506" t="inlineStr"/>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -19701,14 +18751,8 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J507" t="inlineStr"/>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -19740,14 +18784,8 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J508" t="inlineStr"/>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -19779,14 +18817,8 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J509" t="inlineStr"/>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -19818,14 +18850,8 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J510" t="inlineStr"/>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -19857,14 +18883,8 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J511" t="inlineStr"/>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -19896,14 +18916,8 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J512" t="inlineStr"/>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -19935,14 +18949,8 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J513" t="inlineStr"/>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -19974,14 +18982,8 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J514" t="inlineStr"/>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -20013,14 +19015,8 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J515" t="inlineStr"/>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -20052,14 +19048,8 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J516" t="inlineStr"/>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -20091,14 +19081,8 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J517" t="inlineStr"/>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -20130,14 +19114,8 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J518" t="inlineStr"/>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -20169,14 +19147,8 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J519" t="inlineStr"/>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -20208,14 +19180,8 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J520" t="inlineStr"/>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -20247,14 +19213,8 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J521" t="inlineStr"/>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -20286,14 +19246,8 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J522" t="inlineStr"/>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -20325,14 +19279,8 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J523" t="inlineStr"/>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -20364,14 +19312,8 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J524" t="inlineStr"/>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -20403,14 +19345,8 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J525" t="inlineStr"/>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -20442,14 +19378,8 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J526" t="inlineStr"/>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -20481,14 +19411,8 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J527" t="inlineStr"/>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -20520,14 +19444,8 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J528" t="inlineStr"/>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -20559,14 +19477,8 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J529" t="inlineStr"/>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -20598,14 +19510,8 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J530" t="inlineStr"/>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -20637,14 +19543,8 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J531" t="inlineStr"/>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -20676,14 +19576,8 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J532" t="inlineStr"/>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -20715,14 +19609,8 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J533" t="inlineStr"/>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -20754,14 +19642,8 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J534" t="inlineStr"/>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -20793,14 +19675,8 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J535" t="inlineStr"/>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -20832,14 +19708,8 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J536" t="inlineStr"/>
+      <c r="K536" t="inlineStr"/>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -20871,14 +19741,8 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J537" t="inlineStr"/>
+      <c r="K537" t="inlineStr"/>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -20910,14 +19774,8 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J538" t="inlineStr"/>
+      <c r="K538" t="inlineStr"/>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -20949,14 +19807,8 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J539" t="inlineStr"/>
+      <c r="K539" t="inlineStr"/>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -20988,14 +19840,8 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J540" t="inlineStr"/>
+      <c r="K540" t="inlineStr"/>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -21027,14 +19873,8 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J541" t="inlineStr"/>
+      <c r="K541" t="inlineStr"/>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -21066,14 +19906,8 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J542" t="inlineStr"/>
+      <c r="K542" t="inlineStr"/>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -21105,14 +19939,8 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J543" t="inlineStr"/>
+      <c r="K543" t="inlineStr"/>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -21144,14 +19972,8 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J544" t="inlineStr"/>
+      <c r="K544" t="inlineStr"/>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -21183,14 +20005,8 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="n">
-        <v>47.85</v>
-      </c>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J545" t="inlineStr"/>
+      <c r="K545" t="inlineStr"/>
       <c r="L545" t="n">
         <v>1</v>
       </c>
